--- a/output/Vanuatu_aggregated.xlsx
+++ b/output/Vanuatu_aggregated.xlsx
@@ -20,127 +20,127 @@
     <t xml:space="preserve">amountUSD</t>
   </si>
   <si>
+    <t xml:space="preserve">United Kingdom, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private (individuals &amp; organizations)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States of America, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Commission's Humanitarian Aid and Civil Protection Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Union Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Emergency Response Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Fund for UNICEF</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan, Government of</t>
   </si>
   <si>
-    <t xml:space="preserve">United Kingdom, Government of</t>
+    <t xml:space="preserve">United Nations Children's Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea, Republic of, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Korea (Republic of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorra, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Andorra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands, Government of</t>
   </si>
   <si>
     <t xml:space="preserve">Italy, Government of</t>
   </si>
   <si>
-    <t xml:space="preserve">Australia, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States of America, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Commission's Humanitarian Aid and Civil Protection Department</t>
+    <t xml:space="preserve">Spain, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta, Government of</t>
   </si>
   <si>
     <t xml:space="preserve">India, Government of</t>
   </si>
   <si>
     <t xml:space="preserve">United Arab Emirates, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private (individuals &amp; organizations)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Emergency Response Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Union Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Fund for UNICEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Nations Children's Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea, Republic of, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Korea (Republic of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Hong Kong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Luxembourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andorra, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Andorra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1407870</v>
+        <v>3214956</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>3214956</v>
+        <v>4269438</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>336700</v>
+        <v>1294808</v>
       </c>
     </row>
     <row r="5">
@@ -509,7 +509,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>4269438</v>
+        <v>3773405</v>
       </c>
     </row>
     <row r="6">
@@ -525,7 +525,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>2517491</v>
+        <v>149959</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>250000</v>
+        <v>164233</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>700000</v>
+        <v>2517491</v>
       </c>
     </row>
     <row r="10">
@@ -549,7 +549,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>971717</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>521258</v>
+        <v>948961</v>
       </c>
     </row>
     <row r="12">
@@ -565,7 +565,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>1294808</v>
+        <v>5038408</v>
       </c>
     </row>
     <row r="13">
@@ -573,7 +573,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>948961</v>
+        <v>1067491</v>
       </c>
     </row>
     <row r="14">
@@ -581,7 +581,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>164233</v>
+        <v>212089</v>
       </c>
     </row>
     <row r="15">
@@ -589,7 +589,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>5038408</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="16">
@@ -597,7 +597,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>56117</v>
+        <v>27086</v>
       </c>
     </row>
     <row r="17">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>20000</v>
+        <v>1706991</v>
       </c>
     </row>
     <row r="18">
@@ -613,7 +613,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>827556</v>
+        <v>432384</v>
       </c>
     </row>
     <row r="19">
@@ -621,7 +621,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>1067491</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="20">
@@ -629,7 +629,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>212089</v>
+        <v>1407870</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>100000</v>
+        <v>2610402</v>
       </c>
     </row>
     <row r="22">
@@ -645,7 +645,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>27086</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="23">
@@ -653,7 +653,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>1706991</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="24">
@@ -661,7 +661,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>432384</v>
+        <v>22925</v>
       </c>
     </row>
     <row r="25">
@@ -669,7 +669,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>300000</v>
+        <v>221239</v>
       </c>
     </row>
     <row r="26">
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>2868721</v>
+        <v>109211</v>
       </c>
     </row>
     <row r="27">
@@ -685,7 +685,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>2610402</v>
+        <v>12290</v>
       </c>
     </row>
     <row r="28">
@@ -693,7 +693,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>300000</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="29">
@@ -701,7 +701,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>3773405</v>
+        <v>11062</v>
       </c>
     </row>
     <row r="30">
@@ -709,7 +709,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>200000</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="31">
@@ -717,7 +717,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>22925</v>
+        <v>971717</v>
       </c>
     </row>
     <row r="32">
@@ -725,7 +725,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>54171</v>
+        <v>827556</v>
       </c>
     </row>
     <row r="33">
@@ -733,7 +733,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>221239</v>
+        <v>54171</v>
       </c>
     </row>
     <row r="34">
@@ -741,7 +741,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>238987</v>
+        <v>521258</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>109211</v>
+        <v>238987</v>
       </c>
     </row>
     <row r="36">
@@ -757,7 +757,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>12290</v>
+        <v>2868721</v>
       </c>
     </row>
     <row r="37">
@@ -765,7 +765,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>5593</v>
+        <v>336700</v>
       </c>
     </row>
     <row r="38">
@@ -773,7 +773,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>11062</v>
+        <v>56117</v>
       </c>
     </row>
     <row r="39">
@@ -781,7 +781,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>4372</v>
+        <v>54171</v>
       </c>
     </row>
     <row r="40">
@@ -789,7 +789,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>54171</v>
+        <v>44248</v>
       </c>
     </row>
     <row r="41">
@@ -797,7 +797,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>44248</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="42">
@@ -805,7 +805,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>149959</v>
+        <v>700000</v>
       </c>
     </row>
   </sheetData>
